--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>88.63430907486347</v>
+        <v>88.85482708469557</v>
       </c>
     </row>
     <row r="3">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>66.30155738788888</v>
+        <v>66.47913224622444</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>88.85482708469557</v>
+        <v>88.25445330474213</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>88.25445330474213</v>
+        <v>88.25445330474211</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,8 +22,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -52,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -126,27 +129,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -196,14 +178,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,7 +1009,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1049,6 +1031,230 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>68.05555555555556</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>15.27777777777778</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>84.72222222222221</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>15.27777777777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>76.47058823529412</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>76.47058823529412</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>23.52941176470588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tier 3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>6.493506493506493</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>81.81818181818183</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>11.68831168831169</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>88.31168831168831</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>11.68831168831169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1323,159 +1529,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>0.01025071243098354</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.3050242584163881</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>0.01251035915262835</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.3152749708473717</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>0.01251035915262835</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>3.127263941611889</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>93.05610425469258</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>3.81663180369553</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>96.18336819630447</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3.81663180369553</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,19 +1550,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="13" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="13" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1558,11 +1618,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1575,22 +1631,22 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="12" t="n">
         <v>0.01025071243098354</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.3050242584163881</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="12" t="n">
         <v>0.01251035915262835</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0.3152749708473717</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="12" t="n">
         <v>0.01251035915262835</v>
       </c>
       <c r="G4" s="4" t="n">
@@ -1607,65 +1663,6 @@
       </c>
       <c r="K4" s="4" t="n">
         <v>3.81663180369553</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0.01025071243098354</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.3050242584163881</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.01251035915262835</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.3152749708473717</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>0.01251035915262835</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>3.127263941611889</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>93.05610425469258</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>3.81663180369553</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>96.18336819630447</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>3.81663180369553</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,154 +1689,403 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>81</v>
-      </c>
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
+      <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>88.25445330474211</v>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>0.009635402738894634</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.1624529359155251</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>0.009258928285063974</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.1720883386544197</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>0.009258928285063974</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>5.313232948864901</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>89.58113273895454</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>5.105634312180571</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>94.89436568781943</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.105634312180571</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>0.03088743707702055</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>0.000126243007518797</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>0.03088743707702055</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>0.000126243007518797</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>99.59294412280427</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.4070558771957233</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>99.59294412280427</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.4070558771957233</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>0.0006153096920889045</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.1116838854238424</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>0.003125187860045576</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.1122991951159313</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>0.003125187860045576</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.5330846708679984</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>96.75935235199569</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.707562977136309</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>97.29243702286368</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.707562977136309</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Area 81 Total</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>0.01025071243098354</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.3050242584163881</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.01251035915262835</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.3152749708473717</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>0.01251035915262835</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>3.127263941611889</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>93.05610425469258</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>3.81663180369553</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="I7" s="4" t="n">
+        <v>3.816631803695531</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>96.18336819630447</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>3.81663180369553</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>66.47913224622444</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>97.33459079790329</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.665409202096719</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>97.33459079790329</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>2.665409202096719</v>
+      <c r="K7" s="4" t="n">
+        <v>3.816631803695531</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>89.77631277166559</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.127263941611889</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>93.05610425469258</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.81663180369553</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>96.18336819630447</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.81663180369553</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>66.79780401364637</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>97.33459079790329</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.665409202096719</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>97.33459079790329</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.665409202096719</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -1635,34 +1635,34 @@
         <v>81</v>
       </c>
       <c r="B4" s="12" t="n">
-        <v>0.01025071243098354</v>
+        <v>0.01024743946412194</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3050242584163881</v>
+        <v>0.3050137142524005</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>0.01251035915262835</v>
+        <v>0.01252417628347753</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.3152749708473717</v>
+        <v>0.3152611537165225</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>0.01251035915262835</v>
+        <v>0.01252417628347753</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.127263941611889</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>93.05610425469258</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>96.18336819630447</v>
+        <v>96.17915289757551</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
     </row>
   </sheetData>
@@ -1780,34 +1780,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.009635402738894634</v>
+        <v>0.0096332207609869</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1624529359155251</v>
+        <v>0.1623863793868379</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.009258928285063974</v>
+        <v>0.009235573863699286</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1720883386544197</v>
+        <v>0.1720196001478248</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.009258928285063974</v>
+        <v>0.009235573863699286</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.313232948864901</v>
+        <v>5.314728704171736</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>89.58113273895454</v>
+        <v>89.58992772063625</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.105634312180571</v>
+        <v>5.095343575192008</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>94.89436568781943</v>
+        <v>94.904656424808</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.105634312180571</v>
+        <v>5.095343575192008</v>
       </c>
     </row>
     <row r="5">
@@ -1818,31 +1818,31 @@
         <v>0</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>0.03088743707702055</v>
+        <v>0.03090921966329263</v>
       </c>
       <c r="D5" s="14" t="n">
-        <v>0.000126243007518797</v>
+        <v>0.0001510240423280423</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.03088743707702055</v>
+        <v>0.03090921966329263</v>
       </c>
       <c r="F5" s="14" t="n">
-        <v>0.000126243007518797</v>
+        <v>0.0001510240423280423</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>99.59294412280427</v>
+        <v>99.51377058158526</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.4070558771957233</v>
+        <v>0.4862294184147463</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>99.59294412280427</v>
+        <v>99.51377058158526</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4070558771957233</v>
+        <v>0.4862294184147463</v>
       </c>
     </row>
     <row r="6">
@@ -1850,34 +1850,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="n">
-        <v>0.0006153096920889045</v>
+        <v>0.0006142187031350384</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.1116838854238424</v>
+        <v>0.11171811520227</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.003125187860045576</v>
+        <v>0.003137578377450199</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.1122991951159313</v>
+        <v>0.112332333905405</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.003125187860045576</v>
+        <v>0.003137578377450199</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.5330846708679984</v>
+        <v>0.5319296524885614</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>96.75935235199569</v>
+        <v>96.75084443521978</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.707562977136309</v>
+        <v>2.717225912291666</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>97.29243702286368</v>
+        <v>97.28277408770833</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.707562977136309</v>
+        <v>2.717225912291666</v>
       </c>
     </row>
     <row r="7">
@@ -1887,34 +1887,34 @@
         </is>
       </c>
       <c r="B7" s="12" t="n">
-        <v>0.01025071243098354</v>
+        <v>0.01024743946412194</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.3050242584163881</v>
+        <v>0.3050137142524005</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.01251035915262835</v>
+        <v>0.01252417628347753</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.3152749708473717</v>
+        <v>0.3152611537165225</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>0.01251035915262835</v>
+        <v>0.01252417628347753</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.127263941611889</v>
+        <v>3.126265432355358</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>93.05610425469258</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.816631803695531</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>96.18336819630447</v>
+        <v>96.17915289757551</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.816631803695531</v>
+        <v>3.820847102424483</v>
       </c>
     </row>
   </sheetData>
@@ -2049,19 +2049,19 @@
         <v>89.77631277166559</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.127263941611889</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>93.05610425469258</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>96.18336819630447</v>
+        <v>96.17915289757551</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>66.79780401364637</v>

--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,6 +1247,52 @@
       </c>
       <c r="N4" s="4" t="n">
         <v>11.68831168831169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>166</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>142</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>10.24096385542169</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>75.30120481927712</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>14.4578313253012</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>85.54216867469879</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>14.4578313253012</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1950,77 +1996,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -2038,54 +2072,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>81</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>89.77631277166559</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.12626543235536</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>93.05288746522015</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>96.17915289757551</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>3.820847102424483</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>96.17915289757551</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>3.820847102424483</v>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.79780401364637</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>97.26179956602434</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.738200433975654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>97.33459079790329</v>
+        <v>97.26179956602434</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.665409202096719</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>97.33459079790329</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>2.665409202096719</v>
+        <v>2.738200433975654</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_81_summary.xlsx
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>97.26179956602434</v>
+        <v>97.26179956602435</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>2.738200433975654</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>97.26179956602434</v>
+        <v>97.26179956602435</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>2.738200433975654</v>
